--- a/test-input.xlsx
+++ b/test-input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Python\Synchro Automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44B89980-02CF-4862-9C5A-242EBF3C32F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4636C07E-F015-4440-AC6D-CECB78C14C4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{B935739B-1E8B-4825-9ECD-1B8D98B964E5}"/>
+    <workbookView xWindow="28680" yWindow="-2055" windowWidth="29040" windowHeight="15840" xr2:uid="{B935739B-1E8B-4825-9ECD-1B8D98B964E5}"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -80,12 +80,6 @@
     <t>PMEX</t>
   </si>
   <si>
-    <t>AMNB</t>
-  </si>
-  <si>
-    <t>PMNB</t>
-  </si>
-  <si>
     <t>Number</t>
   </si>
   <si>
@@ -96,6 +90,12 @@
   </si>
   <si>
     <t>Turn</t>
+  </si>
+  <si>
+    <t>SW</t>
+  </si>
+  <si>
+    <t>NW</t>
   </si>
 </sst>
 </file>
@@ -994,10 +994,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC750F6C-98FF-418C-9ABC-56FF6AE1D7AD}">
-  <dimension ref="A1:Q44"/>
+  <dimension ref="A1:Q50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T25" sqref="T25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -1030,16 +1030,16 @@
         <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F1" s="57" t="s">
         <v>13</v>
@@ -1051,14 +1051,10 @@
       </c>
       <c r="J1" s="61"/>
       <c r="K1" s="62"/>
-      <c r="L1" s="63" t="s">
-        <v>15</v>
-      </c>
+      <c r="L1" s="63"/>
       <c r="M1" s="64"/>
       <c r="N1" s="65"/>
-      <c r="O1" s="66" t="s">
-        <v>16</v>
-      </c>
+      <c r="O1" s="66"/>
       <c r="P1" s="67"/>
       <c r="Q1" s="68"/>
     </row>
@@ -1073,7 +1069,7 @@
         <v>12</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I2" s="21" t="s">
         <v>11</v>
@@ -1082,26 +1078,14 @@
         <v>12</v>
       </c>
       <c r="K2" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="L2" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="M2" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="N2" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="O2" s="45" t="s">
-        <v>11</v>
-      </c>
-      <c r="P2" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q2" s="47" t="s">
-        <v>19</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="L2" s="33"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="45"/>
+      <c r="P2" s="46"/>
+      <c r="Q2" s="47"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
@@ -1191,9 +1175,7 @@
       <c r="J5" s="28"/>
       <c r="K5" s="29"/>
       <c r="L5" s="39"/>
-      <c r="M5" s="16">
-        <v>0.92408044626477626</v>
-      </c>
+      <c r="M5" s="16"/>
       <c r="N5" s="41"/>
       <c r="O5" s="51"/>
       <c r="P5" s="52"/>
@@ -1220,9 +1202,7 @@
       <c r="J6" s="28"/>
       <c r="K6" s="29"/>
       <c r="L6" s="39"/>
-      <c r="M6" s="16">
-        <v>0.81303211644163587</v>
-      </c>
+      <c r="M6" s="16"/>
       <c r="N6" s="41"/>
       <c r="O6" s="51"/>
       <c r="P6" s="52"/>
@@ -1249,9 +1229,7 @@
       </c>
       <c r="K7" s="29"/>
       <c r="L7" s="39"/>
-      <c r="M7" s="16">
-        <v>0.93331179628259209</v>
-      </c>
+      <c r="M7" s="16"/>
       <c r="N7" s="41"/>
       <c r="O7" s="51"/>
       <c r="P7" s="52"/>
@@ -1278,9 +1256,7 @@
       </c>
       <c r="K8" s="29"/>
       <c r="L8" s="39"/>
-      <c r="M8" s="16">
-        <v>0.98031659608449617</v>
-      </c>
+      <c r="M8" s="16"/>
       <c r="N8" s="41"/>
       <c r="O8" s="51"/>
       <c r="P8" s="52"/>
@@ -1309,9 +1285,7 @@
       </c>
       <c r="K9" s="29"/>
       <c r="L9" s="39"/>
-      <c r="M9" s="16">
-        <v>0.88666676407804901</v>
-      </c>
+      <c r="M9" s="16"/>
       <c r="N9" s="41"/>
       <c r="O9" s="51"/>
       <c r="P9" s="52"/>
@@ -1338,9 +1312,7 @@
       </c>
       <c r="K10" s="29"/>
       <c r="L10" s="39"/>
-      <c r="M10" s="16">
-        <v>0.85956697261821002</v>
-      </c>
+      <c r="M10" s="16"/>
       <c r="N10" s="41"/>
       <c r="O10" s="51"/>
       <c r="P10" s="52"/>
@@ -1367,9 +1339,7 @@
       </c>
       <c r="K11" s="29"/>
       <c r="L11" s="39"/>
-      <c r="M11" s="16">
-        <v>0.765522866307351</v>
-      </c>
+      <c r="M11" s="16"/>
       <c r="N11" s="41"/>
       <c r="O11" s="51"/>
       <c r="P11" s="52"/>
@@ -1492,9 +1462,7 @@
       <c r="K15" s="26"/>
       <c r="L15" s="36"/>
       <c r="M15" s="37"/>
-      <c r="N15" s="14">
-        <v>6</v>
-      </c>
+      <c r="N15" s="14"/>
       <c r="O15" s="48"/>
       <c r="P15" s="49"/>
       <c r="Q15" s="50"/>
@@ -1523,13 +1491,9 @@
       <c r="K16" s="29"/>
       <c r="L16" s="39"/>
       <c r="M16" s="40"/>
-      <c r="N16" s="17">
-        <v>2</v>
-      </c>
+      <c r="N16" s="17"/>
       <c r="O16" s="51"/>
-      <c r="P16" s="16">
-        <v>0.84483469017789226</v>
-      </c>
+      <c r="P16" s="16"/>
       <c r="Q16" s="53"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1553,13 +1517,9 @@
       <c r="K17" s="29"/>
       <c r="L17" s="39"/>
       <c r="M17" s="40"/>
-      <c r="N17" s="17">
-        <v>4</v>
-      </c>
+      <c r="N17" s="17"/>
       <c r="O17" s="51"/>
-      <c r="P17" s="16">
-        <v>0.92408044626477626</v>
-      </c>
+      <c r="P17" s="16"/>
       <c r="Q17" s="53"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1585,15 +1545,9 @@
       <c r="K18" s="29"/>
       <c r="L18" s="39"/>
       <c r="M18" s="40"/>
-      <c r="N18" s="17">
-        <v>4</v>
-      </c>
-      <c r="O18" s="15">
-        <v>94</v>
-      </c>
-      <c r="P18" s="16">
-        <v>0.81303211644163587</v>
-      </c>
+      <c r="N18" s="17"/>
+      <c r="O18" s="15"/>
+      <c r="P18" s="16"/>
       <c r="Q18" s="53"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1617,15 +1571,9 @@
       <c r="K19" s="29"/>
       <c r="L19" s="39"/>
       <c r="M19" s="40"/>
-      <c r="N19" s="17">
-        <v>3</v>
-      </c>
-      <c r="O19" s="15">
-        <v>2</v>
-      </c>
-      <c r="P19" s="16">
-        <v>0.93331179628259209</v>
-      </c>
+      <c r="N19" s="17"/>
+      <c r="O19" s="15"/>
+      <c r="P19" s="16"/>
       <c r="Q19" s="53"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1649,15 +1597,9 @@
       <c r="K20" s="29"/>
       <c r="L20" s="39"/>
       <c r="M20" s="40"/>
-      <c r="N20" s="17">
-        <v>8</v>
-      </c>
-      <c r="O20" s="15">
-        <v>56</v>
-      </c>
-      <c r="P20" s="16">
-        <v>0.98031659608449617</v>
-      </c>
+      <c r="N20" s="17"/>
+      <c r="O20" s="15"/>
+      <c r="P20" s="16"/>
       <c r="Q20" s="53"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1685,15 +1627,9 @@
       </c>
       <c r="L21" s="39"/>
       <c r="M21" s="40"/>
-      <c r="N21" s="17">
-        <v>2</v>
-      </c>
-      <c r="O21" s="15">
-        <v>3</v>
-      </c>
-      <c r="P21" s="16">
-        <v>0.88666676407804901</v>
-      </c>
+      <c r="N21" s="17"/>
+      <c r="O21" s="15"/>
+      <c r="P21" s="16"/>
       <c r="Q21" s="53"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -1719,15 +1655,9 @@
       </c>
       <c r="L22" s="39"/>
       <c r="M22" s="40"/>
-      <c r="N22" s="17">
-        <v>8</v>
-      </c>
-      <c r="O22" s="15">
-        <v>88</v>
-      </c>
-      <c r="P22" s="16">
-        <v>0.85956697261821002</v>
-      </c>
+      <c r="N22" s="17"/>
+      <c r="O22" s="15"/>
+      <c r="P22" s="16"/>
       <c r="Q22" s="53"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1753,15 +1683,9 @@
       </c>
       <c r="L23" s="39"/>
       <c r="M23" s="40"/>
-      <c r="N23" s="17">
-        <v>1</v>
-      </c>
-      <c r="O23" s="15">
-        <v>60</v>
-      </c>
-      <c r="P23" s="16">
-        <v>0.765522866307351</v>
-      </c>
+      <c r="N23" s="17"/>
+      <c r="O23" s="15"/>
+      <c r="P23" s="16"/>
       <c r="Q23" s="53"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -1787,15 +1711,9 @@
       <c r="K24" s="29"/>
       <c r="L24" s="39"/>
       <c r="M24" s="40"/>
-      <c r="N24" s="17">
-        <v>7</v>
-      </c>
-      <c r="O24" s="15">
-        <v>2</v>
-      </c>
-      <c r="P24" s="16">
-        <v>0.88878012800190342</v>
-      </c>
+      <c r="N24" s="17"/>
+      <c r="O24" s="15"/>
+      <c r="P24" s="16"/>
       <c r="Q24" s="53"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -1819,13 +1737,9 @@
       <c r="K25" s="29"/>
       <c r="L25" s="39"/>
       <c r="M25" s="40"/>
-      <c r="N25" s="17">
-        <v>7</v>
-      </c>
+      <c r="N25" s="17"/>
       <c r="O25" s="51"/>
-      <c r="P25" s="16">
-        <v>0.99663461447802715</v>
-      </c>
+      <c r="P25" s="16"/>
       <c r="Q25" s="53"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -1852,9 +1766,7 @@
       <c r="K26" s="32"/>
       <c r="L26" s="42"/>
       <c r="M26" s="43"/>
-      <c r="N26" s="20">
-        <v>8</v>
-      </c>
+      <c r="N26" s="20"/>
       <c r="O26" s="54"/>
       <c r="P26" s="55"/>
       <c r="Q26" s="56"/>
@@ -2076,9 +1988,7 @@
       <c r="I33" s="24"/>
       <c r="J33" s="25"/>
       <c r="K33" s="26"/>
-      <c r="L33" s="15">
-        <v>94</v>
-      </c>
+      <c r="L33" s="15"/>
       <c r="M33" s="37"/>
       <c r="N33" s="38"/>
       <c r="O33" s="48"/>
@@ -2109,9 +2019,7 @@
       <c r="I34" s="27"/>
       <c r="J34" s="28"/>
       <c r="K34" s="29"/>
-      <c r="L34" s="15">
-        <v>2</v>
-      </c>
+      <c r="L34" s="15"/>
       <c r="M34" s="40"/>
       <c r="N34" s="41"/>
       <c r="O34" s="51"/>
@@ -2139,16 +2047,12 @@
       <c r="I35" s="27"/>
       <c r="J35" s="28"/>
       <c r="K35" s="29"/>
-      <c r="L35" s="15">
-        <v>56</v>
-      </c>
+      <c r="L35" s="15"/>
       <c r="M35" s="40"/>
       <c r="N35" s="41"/>
       <c r="O35" s="51"/>
       <c r="P35" s="52"/>
-      <c r="Q35" s="17">
-        <v>5</v>
-      </c>
+      <c r="Q35" s="17"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="5"/>
@@ -2173,16 +2077,12 @@
       <c r="I36" s="27"/>
       <c r="J36" s="28"/>
       <c r="K36" s="29"/>
-      <c r="L36" s="15">
-        <v>3</v>
-      </c>
+      <c r="L36" s="15"/>
       <c r="M36" s="40"/>
       <c r="N36" s="41"/>
       <c r="O36" s="51"/>
       <c r="P36" s="52"/>
-      <c r="Q36" s="17">
-        <v>3</v>
-      </c>
+      <c r="Q36" s="17"/>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="5"/>
@@ -2207,14 +2107,10 @@
       <c r="K37" s="29"/>
       <c r="L37" s="39"/>
       <c r="M37" s="40"/>
-      <c r="N37" s="14">
-        <v>9</v>
-      </c>
+      <c r="N37" s="14"/>
       <c r="O37" s="51"/>
       <c r="P37" s="52"/>
-      <c r="Q37" s="17">
-        <v>2</v>
-      </c>
+      <c r="Q37" s="17"/>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="5"/>
@@ -2239,14 +2135,10 @@
       <c r="K38" s="29"/>
       <c r="L38" s="39"/>
       <c r="M38" s="40"/>
-      <c r="N38" s="17">
-        <v>4</v>
-      </c>
+      <c r="N38" s="17"/>
       <c r="O38" s="51"/>
       <c r="P38" s="52"/>
-      <c r="Q38" s="17">
-        <v>7</v>
-      </c>
+      <c r="Q38" s="17"/>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="5"/>
@@ -2273,14 +2165,10 @@
       <c r="K39" s="29"/>
       <c r="L39" s="39"/>
       <c r="M39" s="40"/>
-      <c r="N39" s="17">
-        <v>9</v>
-      </c>
+      <c r="N39" s="17"/>
       <c r="O39" s="51"/>
       <c r="P39" s="52"/>
-      <c r="Q39" s="17">
-        <v>1</v>
-      </c>
+      <c r="Q39" s="17"/>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="5"/>
@@ -2305,14 +2193,10 @@
       <c r="K40" s="29"/>
       <c r="L40" s="39"/>
       <c r="M40" s="40"/>
-      <c r="N40" s="17">
-        <v>3</v>
-      </c>
+      <c r="N40" s="17"/>
       <c r="O40" s="51"/>
       <c r="P40" s="52"/>
-      <c r="Q40" s="17">
-        <v>8</v>
-      </c>
+      <c r="Q40" s="17"/>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" s="5"/>
@@ -2337,9 +2221,7 @@
       <c r="K41" s="29"/>
       <c r="L41" s="39"/>
       <c r="M41" s="40"/>
-      <c r="N41" s="17">
-        <v>9</v>
-      </c>
+      <c r="N41" s="17"/>
       <c r="O41" s="51"/>
       <c r="P41" s="52"/>
       <c r="Q41" s="53"/>
@@ -2369,9 +2251,7 @@
       <c r="K42" s="29"/>
       <c r="L42" s="39"/>
       <c r="M42" s="40"/>
-      <c r="N42" s="20">
-        <v>3</v>
-      </c>
+      <c r="N42" s="20"/>
       <c r="O42" s="51"/>
       <c r="P42" s="52"/>
       <c r="Q42" s="53"/>
@@ -2432,6 +2312,114 @@
       <c r="O44" s="54"/>
       <c r="P44" s="55"/>
       <c r="Q44" s="56"/>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C45" t="s">
+        <v>19</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>40</v>
+      </c>
+      <c r="F45" s="15">
+        <v>51</v>
+      </c>
+      <c r="G45" s="16">
+        <v>0.96806580284368504</v>
+      </c>
+      <c r="H45" s="17">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="D46" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E46">
+        <v>41</v>
+      </c>
+      <c r="F46" s="15">
+        <v>14</v>
+      </c>
+      <c r="G46" s="16">
+        <v>0.95517364928206905</v>
+      </c>
+      <c r="H46" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="D47" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E47" s="1">
+        <v>42</v>
+      </c>
+      <c r="F47" s="18">
+        <v>13</v>
+      </c>
+      <c r="G47" s="19">
+        <v>0.82093060987295141</v>
+      </c>
+      <c r="H47" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C48" t="s">
+        <v>20</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>40</v>
+      </c>
+      <c r="F48" s="15">
+        <v>51</v>
+      </c>
+      <c r="G48" s="16">
+        <v>0.96806580284368504</v>
+      </c>
+      <c r="H48" s="17">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D49" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E49">
+        <v>41</v>
+      </c>
+      <c r="F49" s="15">
+        <v>14</v>
+      </c>
+      <c r="G49" s="16">
+        <v>0.95517364928206905</v>
+      </c>
+      <c r="H49" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D50" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E50" s="1">
+        <v>42</v>
+      </c>
+      <c r="F50" s="18">
+        <v>13</v>
+      </c>
+      <c r="G50" s="19">
+        <v>0.82093060987295141</v>
+      </c>
+      <c r="H50" s="20">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
